--- a/public/parkscore_data.xlsx
+++ b/public/parkscore_data.xlsx
@@ -5,324 +5,346 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="ParkScore" sheetId="1" r:id="rId4"/>
+    <sheet name="ParkScore" sheetId="1" r:id="rId5"/>
   </sheets>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
-    <t>도</t>
+    <t>province</t>
   </si>
   <si>
-    <t>도시명</t>
+    <t>city</t>
   </si>
   <si>
-    <t>접근 점수</t>
+    <t>access</t>
   </si>
   <si>
-    <t>면적 점수</t>
+    <t>acreage</t>
   </si>
   <si>
-    <t>투자 점수</t>
+    <t>investment</t>
   </si>
   <si>
-    <t>공평 점수</t>
+    <t>equity</t>
   </si>
   <si>
-    <t>시설 점수</t>
+    <t>amenities</t>
   </si>
   <si>
-    <t>총 점수</t>
+    <t>total</t>
   </si>
   <si>
-    <t>순위</t>
+    <t>rank</t>
   </si>
   <si>
-    <t>광역시, 특별시</t>
+    <t>Metropolitan City/Special City</t>
   </si>
   <si>
-    <t>대구광역시</t>
+    <t>Daegu</t>
   </si>
   <si>
-    <t>광주광역시</t>
+    <t>Gwangju</t>
   </si>
   <si>
-    <t>대전광역시</t>
+    <t>Daejeon</t>
   </si>
   <si>
-    <t>부산광역시</t>
+    <t>Busan</t>
   </si>
   <si>
-    <t>서울특별시</t>
+    <t>Seoul</t>
   </si>
   <si>
-    <t>세종특별자치시</t>
+    <t>Sejong</t>
   </si>
   <si>
-    <t>울산광역시</t>
+    <t>Ulsan</t>
   </si>
   <si>
-    <t>인천광역시</t>
+    <t>Incheon</t>
   </si>
   <si>
-    <t>강원도</t>
+    <t>Gangwon-do</t>
   </si>
   <si>
-    <t>강릉시</t>
+    <t>Gangneung</t>
   </si>
   <si>
-    <t>동해시</t>
+    <t>Donghae</t>
   </si>
   <si>
-    <t>삼척시</t>
+    <t>Samcheok</t>
   </si>
   <si>
-    <t>속초시</t>
+    <t>Sokcho</t>
   </si>
   <si>
-    <t>원주시</t>
+    <t>Wonju</t>
   </si>
   <si>
-    <t>춘천시</t>
+    <t>Chuncheon</t>
   </si>
   <si>
-    <t>태백시</t>
+    <t>Taebaek</t>
   </si>
   <si>
-    <t>경기도</t>
+    <t>Gyeonggi-do</t>
   </si>
   <si>
-    <t>고양시</t>
+    <t>Goyang</t>
   </si>
   <si>
-    <t>과천시</t>
+    <t>Gwacheon</t>
   </si>
   <si>
-    <t>광명시</t>
+    <t>Gwangmyeong</t>
   </si>
   <si>
-    <t>광주시</t>
+    <t>Gwangju(Gyeonggi-do)</t>
   </si>
   <si>
-    <t>구리시</t>
+    <t>Guri</t>
   </si>
   <si>
-    <t>군포시</t>
+    <t>Gunpo</t>
   </si>
   <si>
-    <t>김포시</t>
+    <t>Gimpo</t>
   </si>
   <si>
-    <t>남양주시</t>
+    <t>Namyangju</t>
   </si>
   <si>
-    <t>동두천시</t>
+    <t>Dongducheon</t>
   </si>
   <si>
-    <t>부천시</t>
+    <t>Bucheon</t>
   </si>
   <si>
-    <t>성남시</t>
+    <t>Seongnam</t>
   </si>
   <si>
-    <t>수원시</t>
+    <t>Suwon</t>
   </si>
   <si>
-    <t>시흥시</t>
+    <t>Siheung</t>
   </si>
   <si>
-    <t>안산시</t>
+    <t>Ansan</t>
   </si>
   <si>
-    <t>안성시</t>
+    <t>Anseong</t>
   </si>
   <si>
-    <t>안양시</t>
+    <t>Anyang</t>
   </si>
   <si>
-    <t>양주시</t>
+    <t>Yangju</t>
   </si>
   <si>
-    <t>여주시</t>
+    <t>Yeoju</t>
   </si>
   <si>
-    <t>오산시</t>
+    <t>Osan</t>
   </si>
   <si>
-    <t>용인시</t>
+    <t>Yongin</t>
   </si>
   <si>
-    <t>의왕시</t>
+    <t>Uiwang</t>
   </si>
   <si>
-    <t>의정부시</t>
+    <t>Uijeongbu</t>
   </si>
   <si>
-    <t>이천시</t>
+    <t>Icheon</t>
   </si>
   <si>
-    <t>파주시</t>
+    <t>Paju</t>
   </si>
   <si>
-    <t>평택시</t>
+    <t>Pyeongtaek</t>
   </si>
   <si>
-    <t>포천시</t>
+    <t>Pocheon</t>
   </si>
   <si>
-    <t>하남시</t>
+    <t>Hanam</t>
   </si>
   <si>
-    <t>화성시</t>
+    <t>Hwaseong</t>
   </si>
   <si>
-    <t>경상남도</t>
+    <t>Gyeongsangnam-do</t>
   </si>
   <si>
-    <t>거제시</t>
+    <t>Geoje</t>
   </si>
   <si>
-    <t>김해시</t>
+    <t>Gimhae</t>
   </si>
   <si>
-    <t>밀양시</t>
+    <t>Miryang</t>
   </si>
   <si>
-    <t>사천시</t>
+    <t>Sacheon</t>
   </si>
   <si>
-    <t>양산시</t>
+    <t>Yangsan</t>
   </si>
   <si>
-    <t>진주시</t>
+    <t>Jinju</t>
   </si>
   <si>
-    <t>창원시</t>
+    <t>Changwon</t>
   </si>
   <si>
-    <t>통영시</t>
+    <t>Tongyeong</t>
   </si>
   <si>
-    <t>경상북도</t>
+    <t>Gyeongsangbuk-do</t>
   </si>
   <si>
-    <t>경산시</t>
+    <t>Gyeongsan</t>
   </si>
   <si>
-    <t>경주시</t>
+    <t>Gyeongju</t>
   </si>
   <si>
-    <t>구미시</t>
+    <t>Gumi</t>
   </si>
   <si>
-    <t>김천시</t>
+    <t>Gimcheon</t>
   </si>
   <si>
-    <t>문경시</t>
+    <t>Mungyeong</t>
   </si>
   <si>
-    <t>상주시</t>
+    <t>Sangju</t>
   </si>
   <si>
-    <t>안동시</t>
+    <t>Andong</t>
   </si>
   <si>
-    <t>영주시</t>
+    <t>Yeongju</t>
   </si>
   <si>
-    <t>영천시</t>
+    <t>Yeongcheon</t>
   </si>
   <si>
-    <t>포항시</t>
+    <t>Pohang</t>
   </si>
   <si>
-    <t>전라남도</t>
+    <t>Jellanam-do</t>
   </si>
   <si>
-    <t>광양시</t>
+    <t>Gwangyang</t>
   </si>
   <si>
-    <t>나주시</t>
+    <t>Naju</t>
   </si>
   <si>
-    <t>목포시</t>
+    <t>Mokpo</t>
   </si>
   <si>
-    <t>순천시</t>
+    <t>Suncheon</t>
   </si>
   <si>
-    <t>여수시</t>
+    <t>Yeosu</t>
   </si>
   <si>
-    <t>전라북도</t>
+    <t>Jeollabuk-do</t>
   </si>
   <si>
-    <t>군산시</t>
+    <t>Gunsan</t>
   </si>
   <si>
-    <t>김제시</t>
+    <t>Gimje</t>
   </si>
   <si>
-    <t>남원시</t>
+    <t>Namwon</t>
   </si>
   <si>
-    <t>익산시</t>
+    <t>Iksan</t>
   </si>
   <si>
-    <t>전주시</t>
+    <t>Jeonju</t>
   </si>
   <si>
-    <t>정읍시</t>
+    <t>Jeongeup</t>
   </si>
   <si>
-    <t>제주특별자치도</t>
+    <t>Jeju-do</t>
   </si>
   <si>
-    <t>서귀포시</t>
+    <t>Seogwipo</t>
   </si>
   <si>
-    <t>제주시</t>
+    <t>Jeju</t>
   </si>
   <si>
-    <t>충청남도</t>
+    <t>Chungcheongnam-do</t>
   </si>
   <si>
-    <t>계롱시</t>
+    <t>Gyeryong</t>
   </si>
   <si>
-    <t>공주시</t>
+    <t>Gongju</t>
   </si>
   <si>
-    <t>논산시</t>
+    <t>Nonsan</t>
   </si>
   <si>
-    <t>당진시</t>
+    <t>Dangjin</t>
   </si>
   <si>
-    <t>보령시</t>
+    <t>Boryeong</t>
   </si>
   <si>
-    <t>서산시</t>
+    <t>Seosan</t>
   </si>
   <si>
-    <t>아산시</t>
+    <t>Asan</t>
   </si>
   <si>
-    <t>천안시</t>
+    <t>Cheonan</t>
   </si>
   <si>
-    <t>충청북도</t>
+    <t>Chungcheongbuk-do</t>
   </si>
   <si>
-    <t>제천시</t>
+    <t>Jecheon</t>
   </si>
   <si>
-    <t>청주시</t>
+    <t>Cheongju</t>
   </si>
   <si>
-    <t>충주시</t>
+    <t>Chungju</t>
   </si>
 </sst>
 </file>
@@ -349,7 +371,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -451,31 +479,31 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -497,6 +525,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbbbbbb"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -695,12 +724,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -732,10 +761,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -974,12 +1003,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1283,10 +1312,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1595,12 +1624,12 @@
       <c r="G2" s="8">
         <v>100</v>
       </c>
-      <c r="H2" s="7">
-        <f>(C2+D2+E2+F2+G2)/5</f>
+      <c r="H2" s="7" cm="1">
+        <f t="array" ref="H2">(C2+D2+E2+F2+G2)/5</f>
         <v>71.96428537101509</v>
       </c>
-      <c r="I2" s="7">
-        <f>RANK(H2,$H$2:$H$86,0)</f>
+      <c r="I2" s="7" cm="1">
+        <f t="array" ref="I2">RANK(H2,$H$2:$H$86,0)</f>
         <v>12</v>
       </c>
       <c r="J2" s="5"/>
@@ -1627,12 +1656,12 @@
       <c r="G3" s="12">
         <v>100</v>
       </c>
-      <c r="H3" s="11">
-        <f>(C3+D3+E3+F3+G3)/5</f>
+      <c r="H3" s="11" cm="1">
+        <f t="array" ref="H3">(C3+D3+E3+F3+G3)/5</f>
         <v>80.64434934049849</v>
       </c>
-      <c r="I3" s="11">
-        <f>RANK(H3,$H$2:$H$86,0)</f>
+      <c r="I3" s="11" cm="1">
+        <f t="array" ref="I3">RANK(H3,$H$2:$H$86,0)</f>
         <v>4</v>
       </c>
       <c r="J3" s="5"/>
@@ -1659,12 +1688,12 @@
       <c r="G4" s="12">
         <v>54</v>
       </c>
-      <c r="H4" s="11">
-        <f>(C4+D4+E4+F4+G4)/5</f>
+      <c r="H4" s="11" cm="1">
+        <f t="array" ref="H4">(C4+D4+E4+F4+G4)/5</f>
         <v>64.5682666395933</v>
       </c>
-      <c r="I4" s="11">
-        <f>RANK(H4,$H$2:$H$86,0)</f>
+      <c r="I4" s="11" cm="1">
+        <f t="array" ref="I4">RANK(H4,$H$2:$H$86,0)</f>
         <v>20</v>
       </c>
       <c r="J4" s="5"/>
@@ -1691,12 +1720,12 @@
       <c r="G5" s="12">
         <v>80</v>
       </c>
-      <c r="H5" s="11">
-        <f>(C5+D5+E5+F5+G5)/5</f>
+      <c r="H5" s="11" cm="1">
+        <f t="array" ref="H5">(C5+D5+E5+F5+G5)/5</f>
         <v>61.8547359495541</v>
       </c>
-      <c r="I5" s="11">
-        <f>RANK(H5,$H$2:$H$86,0)</f>
+      <c r="I5" s="11" cm="1">
+        <f t="array" ref="I5">RANK(H5,$H$2:$H$86,0)</f>
         <v>28</v>
       </c>
       <c r="J5" s="5"/>
@@ -1723,12 +1752,12 @@
       <c r="G6" s="12">
         <v>100</v>
       </c>
-      <c r="H6" s="11">
-        <f>(C6+D6+E6+F6+G6)/5</f>
+      <c r="H6" s="11" cm="1">
+        <f t="array" ref="H6">(C6+D6+E6+F6+G6)/5</f>
         <v>76.5310639940211</v>
       </c>
-      <c r="I6" s="11">
-        <f>RANK(H6,$H$2:$H$86,0)</f>
+      <c r="I6" s="11" cm="1">
+        <f t="array" ref="I6">RANK(H6,$H$2:$H$86,0)</f>
         <v>9</v>
       </c>
       <c r="J6" s="5"/>
@@ -1755,12 +1784,12 @@
       <c r="G7" s="12">
         <v>14</v>
       </c>
-      <c r="H7" s="11">
-        <f>(C7+D7+E7+F7+G7)/5</f>
+      <c r="H7" s="11" cm="1">
+        <f t="array" ref="H7">(C7+D7+E7+F7+G7)/5</f>
         <v>44.7993983096743</v>
       </c>
-      <c r="I7" s="11">
-        <f>RANK(H7,$H$2:$H$86,0)</f>
+      <c r="I7" s="11" cm="1">
+        <f t="array" ref="I7">RANK(H7,$H$2:$H$86,0)</f>
         <v>62</v>
       </c>
       <c r="J7" s="5"/>
@@ -1787,12 +1816,12 @@
       <c r="G8" s="12">
         <v>23</v>
       </c>
-      <c r="H8" s="11">
-        <f>(C8+D8+E8+F8+G8)/5</f>
+      <c r="H8" s="11" cm="1">
+        <f t="array" ref="H8">(C8+D8+E8+F8+G8)/5</f>
         <v>65.5823578818198</v>
       </c>
-      <c r="I8" s="11">
-        <f>RANK(H8,$H$2:$H$86,0)</f>
+      <c r="I8" s="11" cm="1">
+        <f t="array" ref="I8">RANK(H8,$H$2:$H$86,0)</f>
         <v>18</v>
       </c>
       <c r="J8" s="5"/>
@@ -1819,12 +1848,12 @@
       <c r="G9" s="12">
         <v>28</v>
       </c>
-      <c r="H9" s="11">
-        <f>(C9+D9+E9+F9+G9)/5</f>
+      <c r="H9" s="11" cm="1">
+        <f t="array" ref="H9">(C9+D9+E9+F9+G9)/5</f>
         <v>55.7819226928883</v>
       </c>
-      <c r="I9" s="11">
-        <f>RANK(H9,$H$2:$H$86,0)</f>
+      <c r="I9" s="11" cm="1">
+        <f t="array" ref="I9">RANK(H9,$H$2:$H$86,0)</f>
         <v>42</v>
       </c>
       <c r="J9" s="5"/>
@@ -1853,12 +1882,12 @@
       <c r="G10" s="12">
         <v>48</v>
       </c>
-      <c r="H10" s="11">
-        <f>(C10+D10+E10+F10+G10)/5</f>
+      <c r="H10" s="11" cm="1">
+        <f t="array" ref="H10">(C10+D10+E10+F10+G10)/5</f>
         <v>40.1335844831203</v>
       </c>
-      <c r="I10" s="11">
-        <f>RANK(H10,$H$2:$H$86,0)</f>
+      <c r="I10" s="11" cm="1">
+        <f t="array" ref="I10">RANK(H10,$H$2:$H$86,0)</f>
         <v>73</v>
       </c>
       <c r="J10" s="5"/>
@@ -1885,12 +1914,12 @@
       <c r="G11" s="12">
         <v>100</v>
       </c>
-      <c r="H11" s="11">
-        <f>(C11+D11+E11+F11+G11)/5</f>
+      <c r="H11" s="11" cm="1">
+        <f t="array" ref="H11">(C11+D11+E11+F11+G11)/5</f>
         <v>49.5677365012572</v>
       </c>
-      <c r="I11" s="11">
-        <f>RANK(H11,$H$2:$H$86,0)</f>
+      <c r="I11" s="11" cm="1">
+        <f t="array" ref="I11">RANK(H11,$H$2:$H$86,0)</f>
         <v>57</v>
       </c>
       <c r="J11" s="5"/>
@@ -1917,12 +1946,12 @@
       <c r="G12" s="12">
         <v>37</v>
       </c>
-      <c r="H12" s="11">
-        <f>(C12+D12+E12+F12+G12)/5</f>
+      <c r="H12" s="11" cm="1">
+        <f t="array" ref="H12">(C12+D12+E12+F12+G12)/5</f>
         <v>26.541183612269</v>
       </c>
-      <c r="I12" s="11">
-        <f>RANK(H12,$H$2:$H$86,0)</f>
+      <c r="I12" s="11" cm="1">
+        <f t="array" ref="I12">RANK(H12,$H$2:$H$86,0)</f>
         <v>85</v>
       </c>
       <c r="J12" s="5"/>
@@ -1949,12 +1978,12 @@
       <c r="G13" s="12">
         <v>26</v>
       </c>
-      <c r="H13" s="11">
-        <f>(C13+D13+E13+F13+G13)/5</f>
+      <c r="H13" s="11" cm="1">
+        <f t="array" ref="H13">(C13+D13+E13+F13+G13)/5</f>
         <v>41.9419917959016</v>
       </c>
-      <c r="I13" s="11">
-        <f>RANK(H13,$H$2:$H$86,0)</f>
+      <c r="I13" s="11" cm="1">
+        <f t="array" ref="I13">RANK(H13,$H$2:$H$86,0)</f>
         <v>69</v>
       </c>
       <c r="J13" s="5"/>
@@ -1981,12 +2010,12 @@
       <c r="G14" s="12">
         <v>55</v>
       </c>
-      <c r="H14" s="11">
-        <f>(C14+D14+E14+F14+G14)/5</f>
+      <c r="H14" s="11" cm="1">
+        <f t="array" ref="H14">(C14+D14+E14+F14+G14)/5</f>
         <v>39.2862426931748</v>
       </c>
-      <c r="I14" s="11">
-        <f>RANK(H14,$H$2:$H$86,0)</f>
+      <c r="I14" s="11" cm="1">
+        <f t="array" ref="I14">RANK(H14,$H$2:$H$86,0)</f>
         <v>74</v>
       </c>
       <c r="J14" s="5"/>
@@ -2013,12 +2042,12 @@
       <c r="G15" s="12">
         <v>42</v>
       </c>
-      <c r="H15" s="11">
-        <f>(C15+D15+E15+F15+G15)/5</f>
+      <c r="H15" s="11" cm="1">
+        <f t="array" ref="H15">(C15+D15+E15+F15+G15)/5</f>
         <v>60.2987401112173</v>
       </c>
-      <c r="I15" s="11">
-        <f>RANK(H15,$H$2:$H$86,0)</f>
+      <c r="I15" s="11" cm="1">
+        <f t="array" ref="I15">RANK(H15,$H$2:$H$86,0)</f>
         <v>31</v>
       </c>
       <c r="J15" s="5"/>
@@ -2045,12 +2074,12 @@
       <c r="G16" s="12">
         <v>16</v>
       </c>
-      <c r="H16" s="11">
-        <f>(C16+D16+E16+F16+G16)/5</f>
+      <c r="H16" s="11" cm="1">
+        <f t="array" ref="H16">(C16+D16+E16+F16+G16)/5</f>
         <v>32.449803991698</v>
       </c>
-      <c r="I16" s="11">
-        <f>RANK(H16,$H$2:$H$86,0)</f>
+      <c r="I16" s="11" cm="1">
+        <f t="array" ref="I16">RANK(H16,$H$2:$H$86,0)</f>
         <v>81</v>
       </c>
       <c r="J16" s="5"/>
@@ -2079,12 +2108,12 @@
       <c r="G17" s="12">
         <v>100</v>
       </c>
-      <c r="H17" s="11">
-        <f>(C17+D17+E17+F17+G17)/5</f>
+      <c r="H17" s="11" cm="1">
+        <f t="array" ref="H17">(C17+D17+E17+F17+G17)/5</f>
         <v>76.9023354125371</v>
       </c>
-      <c r="I17" s="11">
-        <f>RANK(H17,$H$2:$H$86,0)</f>
+      <c r="I17" s="11" cm="1">
+        <f t="array" ref="I17">RANK(H17,$H$2:$H$86,0)</f>
         <v>8</v>
       </c>
       <c r="J17" s="5"/>
@@ -2111,12 +2140,12 @@
       <c r="G18" s="12">
         <v>35</v>
       </c>
-      <c r="H18" s="11">
-        <f>(C18+D18+E18+F18+G18)/5</f>
+      <c r="H18" s="11" cm="1">
+        <f t="array" ref="H18">(C18+D18+E18+F18+G18)/5</f>
         <v>56.8168197359533</v>
       </c>
-      <c r="I18" s="11">
-        <f>RANK(H18,$H$2:$H$86,0)</f>
+      <c r="I18" s="11" cm="1">
+        <f t="array" ref="I18">RANK(H18,$H$2:$H$86,0)</f>
         <v>40</v>
       </c>
       <c r="J18" s="5"/>
@@ -2143,12 +2172,12 @@
       <c r="G19" s="12">
         <v>20</v>
       </c>
-      <c r="H19" s="11">
-        <f>(C19+D19+E19+F19+G19)/5</f>
+      <c r="H19" s="11" cm="1">
+        <f t="array" ref="H19">(C19+D19+E19+F19+G19)/5</f>
         <v>67.7252490740434</v>
       </c>
-      <c r="I19" s="11">
-        <f>RANK(H19,$H$2:$H$86,0)</f>
+      <c r="I19" s="11" cm="1">
+        <f t="array" ref="I19">RANK(H19,$H$2:$H$86,0)</f>
         <v>15</v>
       </c>
       <c r="J19" s="5"/>
@@ -2175,12 +2204,12 @@
       <c r="G20" s="12">
         <v>39</v>
       </c>
-      <c r="H20" s="11">
-        <f>(C20+D20+E20+F20+G20)/5</f>
+      <c r="H20" s="11" cm="1">
+        <f t="array" ref="H20">(C20+D20+E20+F20+G20)/5</f>
         <v>35.9363263557731</v>
       </c>
-      <c r="I20" s="11">
-        <f>RANK(H20,$H$2:$H$86,0)</f>
+      <c r="I20" s="11" cm="1">
+        <f t="array" ref="I20">RANK(H20,$H$2:$H$86,0)</f>
         <v>78</v>
       </c>
       <c r="J20" s="5"/>
@@ -2207,12 +2236,12 @@
       <c r="G21" s="12">
         <v>100</v>
       </c>
-      <c r="H21" s="11">
-        <f>(C21+D21+E21+F21+G21)/5</f>
+      <c r="H21" s="11" cm="1">
+        <f t="array" ref="H21">(C21+D21+E21+F21+G21)/5</f>
         <v>77.22946479558109</v>
       </c>
-      <c r="I21" s="11">
-        <f>RANK(H21,$H$2:$H$86,0)</f>
+      <c r="I21" s="11" cm="1">
+        <f t="array" ref="I21">RANK(H21,$H$2:$H$86,0)</f>
         <v>7</v>
       </c>
       <c r="J21" s="5"/>
@@ -2239,12 +2268,12 @@
       <c r="G22" s="12">
         <v>0</v>
       </c>
-      <c r="H22" s="11">
-        <f>(C22+D22+E22+F22+G22)/5</f>
+      <c r="H22" s="11" cm="1">
+        <f t="array" ref="H22">(C22+D22+E22+F22+G22)/5</f>
         <v>49.7836282390053</v>
       </c>
-      <c r="I22" s="11">
-        <f>RANK(H22,$H$2:$H$86,0)</f>
+      <c r="I22" s="11" cm="1">
+        <f t="array" ref="I22">RANK(H22,$H$2:$H$86,0)</f>
         <v>56</v>
       </c>
       <c r="J22" s="5"/>
@@ -2271,12 +2300,12 @@
       <c r="G23" s="12">
         <v>38</v>
       </c>
-      <c r="H23" s="11">
-        <f>(C23+D23+E23+F23+G23)/5</f>
+      <c r="H23" s="11" cm="1">
+        <f t="array" ref="H23">(C23+D23+E23+F23+G23)/5</f>
         <v>62.3697394761382</v>
       </c>
-      <c r="I23" s="11">
-        <f>RANK(H23,$H$2:$H$86,0)</f>
+      <c r="I23" s="11" cm="1">
+        <f t="array" ref="I23">RANK(H23,$H$2:$H$86,0)</f>
         <v>25</v>
       </c>
       <c r="J23" s="5"/>
@@ -2303,12 +2332,12 @@
       <c r="G24" s="12">
         <v>14</v>
       </c>
-      <c r="H24" s="11">
-        <f>(C24+D24+E24+F24+G24)/5</f>
+      <c r="H24" s="11" cm="1">
+        <f t="array" ref="H24">(C24+D24+E24+F24+G24)/5</f>
         <v>55.211042164079</v>
       </c>
-      <c r="I24" s="11">
-        <f>RANK(H24,$H$2:$H$86,0)</f>
+      <c r="I24" s="11" cm="1">
+        <f t="array" ref="I24">RANK(H24,$H$2:$H$86,0)</f>
         <v>44</v>
       </c>
       <c r="J24" s="5"/>
@@ -2335,12 +2364,12 @@
       <c r="G25" s="12">
         <v>100</v>
       </c>
-      <c r="H25" s="11">
-        <f>(C25+D25+E25+F25+G25)/5</f>
+      <c r="H25" s="11" cm="1">
+        <f t="array" ref="H25">(C25+D25+E25+F25+G25)/5</f>
         <v>81.9852786540484</v>
       </c>
-      <c r="I25" s="11">
-        <f>RANK(H25,$H$2:$H$86,0)</f>
+      <c r="I25" s="11" cm="1">
+        <f t="array" ref="I25">RANK(H25,$H$2:$H$86,0)</f>
         <v>3</v>
       </c>
       <c r="J25" s="5"/>
@@ -2367,12 +2396,12 @@
       <c r="G26" s="12">
         <v>67</v>
       </c>
-      <c r="H26" s="11">
-        <f>(C26+D26+E26+F26+G26)/5</f>
+      <c r="H26" s="11" cm="1">
+        <f t="array" ref="H26">(C26+D26+E26+F26+G26)/5</f>
         <v>76.0912580288162</v>
       </c>
-      <c r="I26" s="11">
-        <f>RANK(H26,$H$2:$H$86,0)</f>
+      <c r="I26" s="11" cm="1">
+        <f t="array" ref="I26">RANK(H26,$H$2:$H$86,0)</f>
         <v>10</v>
       </c>
       <c r="J26" s="5"/>
@@ -2399,12 +2428,12 @@
       <c r="G27" s="12">
         <v>100</v>
       </c>
-      <c r="H27" s="11">
-        <f>(C27+D27+E27+F27+G27)/5</f>
+      <c r="H27" s="11" cm="1">
+        <f t="array" ref="H27">(C27+D27+E27+F27+G27)/5</f>
         <v>79.881889126940</v>
       </c>
-      <c r="I27" s="11">
-        <f>RANK(H27,$H$2:$H$86,0)</f>
+      <c r="I27" s="11" cm="1">
+        <f t="array" ref="I27">RANK(H27,$H$2:$H$86,0)</f>
         <v>5</v>
       </c>
       <c r="J27" s="5"/>
@@ -2431,12 +2460,12 @@
       <c r="G28" s="12">
         <v>10</v>
       </c>
-      <c r="H28" s="11">
-        <f>(C28+D28+E28+F28+G28)/5</f>
+      <c r="H28" s="11" cm="1">
+        <f t="array" ref="H28">(C28+D28+E28+F28+G28)/5</f>
         <v>64.3283322712855</v>
       </c>
-      <c r="I28" s="11">
-        <f>RANK(H28,$H$2:$H$86,0)</f>
+      <c r="I28" s="11" cm="1">
+        <f t="array" ref="I28">RANK(H28,$H$2:$H$86,0)</f>
         <v>21</v>
       </c>
       <c r="J28" s="5"/>
@@ -2463,12 +2492,12 @@
       <c r="G29" s="12">
         <v>22</v>
       </c>
-      <c r="H29" s="11">
-        <f>(C29+D29+E29+F29+G29)/5</f>
+      <c r="H29" s="11" cm="1">
+        <f t="array" ref="H29">(C29+D29+E29+F29+G29)/5</f>
         <v>55.5103139534877</v>
       </c>
-      <c r="I29" s="11">
-        <f>RANK(H29,$H$2:$H$86,0)</f>
+      <c r="I29" s="11" cm="1">
+        <f t="array" ref="I29">RANK(H29,$H$2:$H$86,0)</f>
         <v>43</v>
       </c>
       <c r="J29" s="5"/>
@@ -2495,12 +2524,12 @@
       <c r="G30" s="12">
         <v>100</v>
       </c>
-      <c r="H30" s="11">
-        <f>(C30+D30+E30+F30+G30)/5</f>
+      <c r="H30" s="11" cm="1">
+        <f t="array" ref="H30">(C30+D30+E30+F30+G30)/5</f>
         <v>87.27319444510179</v>
       </c>
-      <c r="I30" s="11">
-        <f>RANK(H30,$H$2:$H$86,0)</f>
+      <c r="I30" s="11" cm="1">
+        <f t="array" ref="I30">RANK(H30,$H$2:$H$86,0)</f>
         <v>1</v>
       </c>
       <c r="J30" s="5"/>
@@ -2527,12 +2556,12 @@
       <c r="G31" s="12">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
-        <f>(C31+D31+E31+F31+G31)/5</f>
+      <c r="H31" s="11" cm="1">
+        <f t="array" ref="H31">(C31+D31+E31+F31+G31)/5</f>
         <v>27.2098300423459</v>
       </c>
-      <c r="I31" s="11">
-        <f>RANK(H31,$H$2:$H$86,0)</f>
+      <c r="I31" s="11" cm="1">
+        <f t="array" ref="I31">RANK(H31,$H$2:$H$86,0)</f>
         <v>84</v>
       </c>
       <c r="J31" s="5"/>
@@ -2559,12 +2588,12 @@
       <c r="G32" s="12">
         <v>0</v>
       </c>
-      <c r="H32" s="11">
-        <f>(C32+D32+E32+F32+G32)/5</f>
+      <c r="H32" s="11" cm="1">
+        <f t="array" ref="H32">(C32+D32+E32+F32+G32)/5</f>
         <v>56.5745296834788</v>
       </c>
-      <c r="I32" s="11">
-        <f>RANK(H32,$H$2:$H$86,0)</f>
+      <c r="I32" s="11" cm="1">
+        <f t="array" ref="I32">RANK(H32,$H$2:$H$86,0)</f>
         <v>41</v>
       </c>
       <c r="J32" s="5"/>
@@ -2591,12 +2620,12 @@
       <c r="G33" s="12">
         <v>36</v>
       </c>
-      <c r="H33" s="11">
-        <f>(C33+D33+E33+F33+G33)/5</f>
+      <c r="H33" s="11" cm="1">
+        <f t="array" ref="H33">(C33+D33+E33+F33+G33)/5</f>
         <v>47.8770874024945</v>
       </c>
-      <c r="I33" s="11">
-        <f>RANK(H33,$H$2:$H$86,0)</f>
+      <c r="I33" s="11" cm="1">
+        <f t="array" ref="I33">RANK(H33,$H$2:$H$86,0)</f>
         <v>60</v>
       </c>
       <c r="J33" s="5"/>
@@ -2623,12 +2652,12 @@
       <c r="G34" s="12">
         <v>29</v>
       </c>
-      <c r="H34" s="11">
-        <f>(C34+D34+E34+F34+G34)/5</f>
+      <c r="H34" s="11" cm="1">
+        <f t="array" ref="H34">(C34+D34+E34+F34+G34)/5</f>
         <v>28.2699604546553</v>
       </c>
-      <c r="I34" s="11">
-        <f>RANK(H34,$H$2:$H$86,0)</f>
+      <c r="I34" s="11" cm="1">
+        <f t="array" ref="I34">RANK(H34,$H$2:$H$86,0)</f>
         <v>82</v>
       </c>
       <c r="J34" s="5"/>
@@ -2655,12 +2684,12 @@
       <c r="G35" s="12">
         <v>100</v>
       </c>
-      <c r="H35" s="11">
-        <f>(C35+D35+E35+F35+G35)/5</f>
+      <c r="H35" s="11" cm="1">
+        <f t="array" ref="H35">(C35+D35+E35+F35+G35)/5</f>
         <v>77.6875660918207</v>
       </c>
-      <c r="I35" s="11">
-        <f>RANK(H35,$H$2:$H$86,0)</f>
+      <c r="I35" s="11" cm="1">
+        <f t="array" ref="I35">RANK(H35,$H$2:$H$86,0)</f>
         <v>6</v>
       </c>
       <c r="J35" s="5"/>
@@ -2687,12 +2716,12 @@
       <c r="G36" s="12">
         <v>3</v>
       </c>
-      <c r="H36" s="11">
-        <f>(C36+D36+E36+F36+G36)/5</f>
+      <c r="H36" s="11" cm="1">
+        <f t="array" ref="H36">(C36+D36+E36+F36+G36)/5</f>
         <v>57.0730254968012</v>
       </c>
-      <c r="I36" s="11">
-        <f>RANK(H36,$H$2:$H$86,0)</f>
+      <c r="I36" s="11" cm="1">
+        <f t="array" ref="I36">RANK(H36,$H$2:$H$86,0)</f>
         <v>39</v>
       </c>
       <c r="J36" s="5"/>
@@ -2719,12 +2748,12 @@
       <c r="G37" s="12">
         <v>6</v>
       </c>
-      <c r="H37" s="11">
-        <f>(C37+D37+E37+F37+G37)/5</f>
+      <c r="H37" s="11" cm="1">
+        <f t="array" ref="H37">(C37+D37+E37+F37+G37)/5</f>
         <v>58.077208678663</v>
       </c>
-      <c r="I37" s="11">
-        <f>RANK(H37,$H$2:$H$86,0)</f>
+      <c r="I37" s="11" cm="1">
+        <f t="array" ref="I37">RANK(H37,$H$2:$H$86,0)</f>
         <v>35</v>
       </c>
       <c r="J37" s="5"/>
@@ -2751,12 +2780,12 @@
       <c r="G38" s="12">
         <v>100</v>
       </c>
-      <c r="H38" s="11">
-        <f>(C38+D38+E38+F38+G38)/5</f>
+      <c r="H38" s="11" cm="1">
+        <f t="array" ref="H38">(C38+D38+E38+F38+G38)/5</f>
         <v>65.0025808507749</v>
       </c>
-      <c r="I38" s="11">
-        <f>RANK(H38,$H$2:$H$86,0)</f>
+      <c r="I38" s="11" cm="1">
+        <f t="array" ref="I38">RANK(H38,$H$2:$H$86,0)</f>
         <v>19</v>
       </c>
       <c r="J38" s="5"/>
@@ -2783,12 +2812,12 @@
       <c r="G39" s="12">
         <v>5</v>
       </c>
-      <c r="H39" s="11">
-        <f>(C39+D39+E39+F39+G39)/5</f>
+      <c r="H39" s="11" cm="1">
+        <f t="array" ref="H39">(C39+D39+E39+F39+G39)/5</f>
         <v>42.8815480617165</v>
       </c>
-      <c r="I39" s="11">
-        <f>RANK(H39,$H$2:$H$86,0)</f>
+      <c r="I39" s="11" cm="1">
+        <f t="array" ref="I39">RANK(H39,$H$2:$H$86,0)</f>
         <v>67</v>
       </c>
       <c r="J39" s="5"/>
@@ -2815,12 +2844,12 @@
       <c r="G40" s="12">
         <v>18</v>
       </c>
-      <c r="H40" s="11">
-        <f>(C40+D40+E40+F40+G40)/5</f>
+      <c r="H40" s="11" cm="1">
+        <f t="array" ref="H40">(C40+D40+E40+F40+G40)/5</f>
         <v>44.5434683532326</v>
       </c>
-      <c r="I40" s="11">
-        <f>RANK(H40,$H$2:$H$86,0)</f>
+      <c r="I40" s="11" cm="1">
+        <f t="array" ref="I40">RANK(H40,$H$2:$H$86,0)</f>
         <v>63</v>
       </c>
       <c r="J40" s="5"/>
@@ -2847,12 +2876,12 @@
       <c r="G41" s="12">
         <v>5</v>
       </c>
-      <c r="H41" s="11">
-        <f>(C41+D41+E41+F41+G41)/5</f>
+      <c r="H41" s="11" cm="1">
+        <f t="array" ref="H41">(C41+D41+E41+F41+G41)/5</f>
         <v>62.6457465868915</v>
       </c>
-      <c r="I41" s="11">
-        <f>RANK(H41,$H$2:$H$86,0)</f>
+      <c r="I41" s="11" cm="1">
+        <f t="array" ref="I41">RANK(H41,$H$2:$H$86,0)</f>
         <v>24</v>
       </c>
       <c r="J41" s="5"/>
@@ -2879,12 +2908,12 @@
       <c r="G42" s="12">
         <v>21</v>
       </c>
-      <c r="H42" s="11">
-        <f>(C42+D42+E42+F42+G42)/5</f>
+      <c r="H42" s="11" cm="1">
+        <f t="array" ref="H42">(C42+D42+E42+F42+G42)/5</f>
         <v>40.2333762422114</v>
       </c>
-      <c r="I42" s="11">
-        <f>RANK(H42,$H$2:$H$86,0)</f>
+      <c r="I42" s="11" cm="1">
+        <f t="array" ref="I42">RANK(H42,$H$2:$H$86,0)</f>
         <v>72</v>
       </c>
       <c r="J42" s="5"/>
@@ -2911,12 +2940,12 @@
       <c r="G43" s="12">
         <v>100</v>
       </c>
-      <c r="H43" s="11">
-        <f>(C43+D43+E43+F43+G43)/5</f>
+      <c r="H43" s="11" cm="1">
+        <f t="array" ref="H43">(C43+D43+E43+F43+G43)/5</f>
         <v>69.9536754051456</v>
       </c>
-      <c r="I43" s="11">
-        <f>RANK(H43,$H$2:$H$86,0)</f>
+      <c r="I43" s="11" cm="1">
+        <f t="array" ref="I43">RANK(H43,$H$2:$H$86,0)</f>
         <v>14</v>
       </c>
       <c r="J43" s="5"/>
@@ -2943,12 +2972,12 @@
       <c r="G44" s="12">
         <v>0</v>
       </c>
-      <c r="H44" s="11">
-        <f>(C44+D44+E44+F44+G44)/5</f>
+      <c r="H44" s="11" cm="1">
+        <f t="array" ref="H44">(C44+D44+E44+F44+G44)/5</f>
         <v>43.5827964253152</v>
       </c>
-      <c r="I44" s="11">
-        <f>RANK(H44,$H$2:$H$86,0)</f>
+      <c r="I44" s="11" cm="1">
+        <f t="array" ref="I44">RANK(H44,$H$2:$H$86,0)</f>
         <v>66</v>
       </c>
       <c r="J44" s="5"/>
@@ -2977,12 +3006,12 @@
       <c r="G45" s="12">
         <v>9</v>
       </c>
-      <c r="H45" s="11">
-        <f>(C45+D45+E45+F45+G45)/5</f>
+      <c r="H45" s="11" cm="1">
+        <f t="array" ref="H45">(C45+D45+E45+F45+G45)/5</f>
         <v>37.766559674436</v>
       </c>
-      <c r="I45" s="11">
-        <f>RANK(H45,$H$2:$H$86,0)</f>
+      <c r="I45" s="11" cm="1">
+        <f t="array" ref="I45">RANK(H45,$H$2:$H$86,0)</f>
         <v>75</v>
       </c>
       <c r="J45" s="5"/>
@@ -3009,12 +3038,12 @@
       <c r="G46" s="12">
         <v>12</v>
       </c>
-      <c r="H46" s="11">
-        <f>(C46+D46+E46+F46+G46)/5</f>
+      <c r="H46" s="11" cm="1">
+        <f t="array" ref="H46">(C46+D46+E46+F46+G46)/5</f>
         <v>36.9654300954143</v>
       </c>
-      <c r="I46" s="11">
-        <f>RANK(H46,$H$2:$H$86,0)</f>
+      <c r="I46" s="11" cm="1">
+        <f t="array" ref="I46">RANK(H46,$H$2:$H$86,0)</f>
         <v>76</v>
       </c>
       <c r="J46" s="5"/>
@@ -3041,12 +3070,12 @@
       <c r="G47" s="12">
         <v>11</v>
       </c>
-      <c r="H47" s="11">
-        <f>(C47+D47+E47+F47+G47)/5</f>
+      <c r="H47" s="11" cm="1">
+        <f t="array" ref="H47">(C47+D47+E47+F47+G47)/5</f>
         <v>41.903333934332</v>
       </c>
-      <c r="I47" s="11">
-        <f>RANK(H47,$H$2:$H$86,0)</f>
+      <c r="I47" s="11" cm="1">
+        <f t="array" ref="I47">RANK(H47,$H$2:$H$86,0)</f>
         <v>70</v>
       </c>
       <c r="J47" s="5"/>
@@ -3073,12 +3102,12 @@
       <c r="G48" s="12">
         <v>100</v>
       </c>
-      <c r="H48" s="11">
-        <f>(C48+D48+E48+F48+G48)/5</f>
+      <c r="H48" s="11" cm="1">
+        <f t="array" ref="H48">(C48+D48+E48+F48+G48)/5</f>
         <v>58.3450015618142</v>
       </c>
-      <c r="I48" s="11">
-        <f>RANK(H48,$H$2:$H$86,0)</f>
+      <c r="I48" s="11" cm="1">
+        <f t="array" ref="I48">RANK(H48,$H$2:$H$86,0)</f>
         <v>33</v>
       </c>
       <c r="J48" s="5"/>
@@ -3105,12 +3134,12 @@
       <c r="G49" s="12">
         <v>31</v>
       </c>
-      <c r="H49" s="11">
-        <f>(C49+D49+E49+F49+G49)/5</f>
+      <c r="H49" s="11" cm="1">
+        <f t="array" ref="H49">(C49+D49+E49+F49+G49)/5</f>
         <v>52.0649551320047</v>
       </c>
-      <c r="I49" s="11">
-        <f>RANK(H49,$H$2:$H$86,0)</f>
+      <c r="I49" s="11" cm="1">
+        <f t="array" ref="I49">RANK(H49,$H$2:$H$86,0)</f>
         <v>52</v>
       </c>
       <c r="J49" s="5"/>
@@ -3137,12 +3166,12 @@
       <c r="G50" s="12">
         <v>6</v>
       </c>
-      <c r="H50" s="11">
-        <f>(C50+D50+E50+F50+G50)/5</f>
+      <c r="H50" s="11" cm="1">
+        <f t="array" ref="H50">(C50+D50+E50+F50+G50)/5</f>
         <v>47.5325135696078</v>
       </c>
-      <c r="I50" s="11">
-        <f>RANK(H50,$H$2:$H$86,0)</f>
+      <c r="I50" s="11" cm="1">
+        <f t="array" ref="I50">RANK(H50,$H$2:$H$86,0)</f>
         <v>61</v>
       </c>
       <c r="J50" s="5"/>
@@ -3169,12 +3198,12 @@
       <c r="G51" s="12">
         <v>92</v>
       </c>
-      <c r="H51" s="11">
-        <f>(C51+D51+E51+F51+G51)/5</f>
+      <c r="H51" s="11" cm="1">
+        <f t="array" ref="H51">(C51+D51+E51+F51+G51)/5</f>
         <v>83.5844166980641</v>
       </c>
-      <c r="I51" s="11">
-        <f>RANK(H51,$H$2:$H$86,0)</f>
+      <c r="I51" s="11" cm="1">
+        <f t="array" ref="I51">RANK(H51,$H$2:$H$86,0)</f>
         <v>2</v>
       </c>
       <c r="J51" s="5"/>
@@ -3201,12 +3230,12 @@
       <c r="G52" s="12">
         <v>3</v>
       </c>
-      <c r="H52" s="11">
-        <f>(C52+D52+E52+F52+G52)/5</f>
+      <c r="H52" s="11" cm="1">
+        <f t="array" ref="H52">(C52+D52+E52+F52+G52)/5</f>
         <v>50.5840580677031</v>
       </c>
-      <c r="I52" s="11">
-        <f>RANK(H52,$H$2:$H$86,0)</f>
+      <c r="I52" s="11" cm="1">
+        <f t="array" ref="I52">RANK(H52,$H$2:$H$86,0)</f>
         <v>54</v>
       </c>
       <c r="J52" s="5"/>
@@ -3235,12 +3264,12 @@
       <c r="G53" s="12">
         <v>78</v>
       </c>
-      <c r="H53" s="11">
-        <f>(C53+D53+E53+F53+G53)/5</f>
+      <c r="H53" s="11" cm="1">
+        <f t="array" ref="H53">(C53+D53+E53+F53+G53)/5</f>
         <v>61.5779224986985</v>
       </c>
-      <c r="I53" s="11">
-        <f>RANK(H53,$H$2:$H$86,0)</f>
+      <c r="I53" s="11" cm="1">
+        <f t="array" ref="I53">RANK(H53,$H$2:$H$86,0)</f>
         <v>29</v>
       </c>
       <c r="J53" s="5"/>
@@ -3267,12 +3296,12 @@
       <c r="G54" s="12">
         <v>55</v>
       </c>
-      <c r="H54" s="11">
-        <f>(C54+D54+E54+F54+G54)/5</f>
+      <c r="H54" s="11" cm="1">
+        <f t="array" ref="H54">(C54+D54+E54+F54+G54)/5</f>
         <v>42.7774648558305</v>
       </c>
-      <c r="I54" s="11">
-        <f>RANK(H54,$H$2:$H$86,0)</f>
+      <c r="I54" s="11" cm="1">
+        <f t="array" ref="I54">RANK(H54,$H$2:$H$86,0)</f>
         <v>68</v>
       </c>
       <c r="J54" s="5"/>
@@ -3299,12 +3328,12 @@
       <c r="G55" s="12">
         <v>76</v>
       </c>
-      <c r="H55" s="11">
-        <f>(C55+D55+E55+F55+G55)/5</f>
+      <c r="H55" s="11" cm="1">
+        <f t="array" ref="H55">(C55+D55+E55+F55+G55)/5</f>
         <v>66.69415335813611</v>
       </c>
-      <c r="I55" s="11">
-        <f>RANK(H55,$H$2:$H$86,0)</f>
+      <c r="I55" s="11" cm="1">
+        <f t="array" ref="I55">RANK(H55,$H$2:$H$86,0)</f>
         <v>16</v>
       </c>
       <c r="J55" s="5"/>
@@ -3331,12 +3360,12 @@
       <c r="G56" s="12">
         <v>0</v>
       </c>
-      <c r="H56" s="11">
-        <f>(C56+D56+E56+F56+G56)/5</f>
+      <c r="H56" s="11" cm="1">
+        <f t="array" ref="H56">(C56+D56+E56+F56+G56)/5</f>
         <v>27.7436897637769</v>
       </c>
-      <c r="I56" s="11">
-        <f>RANK(H56,$H$2:$H$86,0)</f>
+      <c r="I56" s="11" cm="1">
+        <f t="array" ref="I56">RANK(H56,$H$2:$H$86,0)</f>
         <v>83</v>
       </c>
       <c r="J56" s="5"/>
@@ -3363,12 +3392,12 @@
       <c r="G57" s="12">
         <v>100</v>
       </c>
-      <c r="H57" s="11">
-        <f>(C57+D57+E57+F57+G57)/5</f>
+      <c r="H57" s="11" cm="1">
+        <f t="array" ref="H57">(C57+D57+E57+F57+G57)/5</f>
         <v>36.1446379953364</v>
       </c>
-      <c r="I57" s="11">
-        <f>RANK(H57,$H$2:$H$86,0)</f>
+      <c r="I57" s="11" cm="1">
+        <f t="array" ref="I57">RANK(H57,$H$2:$H$86,0)</f>
         <v>77</v>
       </c>
       <c r="J57" s="5"/>
@@ -3395,12 +3424,12 @@
       <c r="G58" s="12">
         <v>25</v>
       </c>
-      <c r="H58" s="11">
-        <f>(C58+D58+E58+F58+G58)/5</f>
+      <c r="H58" s="11" cm="1">
+        <f t="array" ref="H58">(C58+D58+E58+F58+G58)/5</f>
         <v>34.0317520710528</v>
       </c>
-      <c r="I58" s="11">
-        <f>RANK(H58,$H$2:$H$86,0)</f>
+      <c r="I58" s="11" cm="1">
+        <f t="array" ref="I58">RANK(H58,$H$2:$H$86,0)</f>
         <v>79</v>
       </c>
       <c r="J58" s="5"/>
@@ -3427,12 +3456,12 @@
       <c r="G59" s="12">
         <v>52</v>
       </c>
-      <c r="H59" s="11">
-        <f>(C59+D59+E59+F59+G59)/5</f>
+      <c r="H59" s="11" cm="1">
+        <f t="array" ref="H59">(C59+D59+E59+F59+G59)/5</f>
         <v>57.5164912012566</v>
       </c>
-      <c r="I59" s="11">
-        <f>RANK(H59,$H$2:$H$86,0)</f>
+      <c r="I59" s="11" cm="1">
+        <f t="array" ref="I59">RANK(H59,$H$2:$H$86,0)</f>
         <v>36</v>
       </c>
       <c r="J59" s="5"/>
@@ -3459,12 +3488,12 @@
       <c r="G60" s="12">
         <v>23</v>
       </c>
-      <c r="H60" s="11">
-        <f>(C60+D60+E60+F60+G60)/5</f>
+      <c r="H60" s="11" cm="1">
+        <f t="array" ref="H60">(C60+D60+E60+F60+G60)/5</f>
         <v>44.2496322331045</v>
       </c>
-      <c r="I60" s="11">
-        <f>RANK(H60,$H$2:$H$86,0)</f>
+      <c r="I60" s="11" cm="1">
+        <f t="array" ref="I60">RANK(H60,$H$2:$H$86,0)</f>
         <v>65</v>
       </c>
       <c r="J60" s="5"/>
@@ -3491,12 +3520,12 @@
       <c r="G61" s="12">
         <v>100</v>
       </c>
-      <c r="H61" s="11">
-        <f>(C61+D61+E61+F61+G61)/5</f>
+      <c r="H61" s="11" cm="1">
+        <f t="array" ref="H61">(C61+D61+E61+F61+G61)/5</f>
         <v>54.0678622874444</v>
       </c>
-      <c r="I61" s="11">
-        <f>RANK(H61,$H$2:$H$86,0)</f>
+      <c r="I61" s="11" cm="1">
+        <f t="array" ref="I61">RANK(H61,$H$2:$H$86,0)</f>
         <v>47</v>
       </c>
       <c r="J61" s="5"/>
@@ -3523,12 +3552,12 @@
       <c r="G62" s="12">
         <v>100</v>
       </c>
-      <c r="H62" s="11">
-        <f>(C62+D62+E62+F62+G62)/5</f>
+      <c r="H62" s="11" cm="1">
+        <f t="array" ref="H62">(C62+D62+E62+F62+G62)/5</f>
         <v>60.4501202371599</v>
       </c>
-      <c r="I62" s="11">
-        <f>RANK(H62,$H$2:$H$86,0)</f>
+      <c r="I62" s="11" cm="1">
+        <f t="array" ref="I62">RANK(H62,$H$2:$H$86,0)</f>
         <v>30</v>
       </c>
       <c r="J62" s="5"/>
@@ -3557,12 +3586,12 @@
       <c r="G63" s="12">
         <v>2</v>
       </c>
-      <c r="H63" s="11">
-        <f>(C63+D63+E63+F63+G63)/5</f>
+      <c r="H63" s="11" cm="1">
+        <f t="array" ref="H63">(C63+D63+E63+F63+G63)/5</f>
         <v>57.3657470867474</v>
       </c>
-      <c r="I63" s="11">
-        <f>RANK(H63,$H$2:$H$86,0)</f>
+      <c r="I63" s="11" cm="1">
+        <f t="array" ref="I63">RANK(H63,$H$2:$H$86,0)</f>
         <v>37</v>
       </c>
       <c r="J63" s="5"/>
@@ -3589,12 +3618,12 @@
       <c r="G64" s="12">
         <v>62</v>
       </c>
-      <c r="H64" s="11">
-        <f>(C64+D64+E64+F64+G64)/5</f>
+      <c r="H64" s="11" cm="1">
+        <f t="array" ref="H64">(C64+D64+E64+F64+G64)/5</f>
         <v>52.9932339713125</v>
       </c>
-      <c r="I64" s="11">
-        <f>RANK(H64,$H$2:$H$86,0)</f>
+      <c r="I64" s="11" cm="1">
+        <f t="array" ref="I64">RANK(H64,$H$2:$H$86,0)</f>
         <v>50</v>
       </c>
       <c r="J64" s="5"/>
@@ -3621,12 +3650,12 @@
       <c r="G65" s="12">
         <v>14</v>
       </c>
-      <c r="H65" s="11">
-        <f>(C65+D65+E65+F65+G65)/5</f>
+      <c r="H65" s="11" cm="1">
+        <f t="array" ref="H65">(C65+D65+E65+F65+G65)/5</f>
         <v>61.9212799980056</v>
       </c>
-      <c r="I65" s="11">
-        <f>RANK(H65,$H$2:$H$86,0)</f>
+      <c r="I65" s="11" cm="1">
+        <f t="array" ref="I65">RANK(H65,$H$2:$H$86,0)</f>
         <v>27</v>
       </c>
       <c r="J65" s="5"/>
@@ -3653,12 +3682,12 @@
       <c r="G66" s="12">
         <v>100</v>
       </c>
-      <c r="H66" s="11">
-        <f>(C66+D66+E66+F66+G66)/5</f>
+      <c r="H66" s="11" cm="1">
+        <f t="array" ref="H66">(C66+D66+E66+F66+G66)/5</f>
         <v>59.6584390674511</v>
       </c>
-      <c r="I66" s="11">
-        <f>RANK(H66,$H$2:$H$86,0)</f>
+      <c r="I66" s="11" cm="1">
+        <f t="array" ref="I66">RANK(H66,$H$2:$H$86,0)</f>
         <v>32</v>
       </c>
       <c r="J66" s="5"/>
@@ -3685,12 +3714,12 @@
       <c r="G67" s="12">
         <v>4</v>
       </c>
-      <c r="H67" s="11">
-        <f>(C67+D67+E67+F67+G67)/5</f>
+      <c r="H67" s="11" cm="1">
+        <f t="array" ref="H67">(C67+D67+E67+F67+G67)/5</f>
         <v>50.0449608976475</v>
       </c>
-      <c r="I67" s="11">
-        <f>RANK(H67,$H$2:$H$86,0)</f>
+      <c r="I67" s="11" cm="1">
+        <f t="array" ref="I67">RANK(H67,$H$2:$H$86,0)</f>
         <v>55</v>
       </c>
       <c r="J67" s="5"/>
@@ -3719,12 +3748,12 @@
       <c r="G68" s="12">
         <v>100</v>
       </c>
-      <c r="H68" s="11">
-        <f>(C68+D68+E68+F68+G68)/5</f>
+      <c r="H68" s="11" cm="1">
+        <f t="array" ref="H68">(C68+D68+E68+F68+G68)/5</f>
         <v>71.315681779350</v>
       </c>
-      <c r="I68" s="11">
-        <f>RANK(H68,$H$2:$H$86,0)</f>
+      <c r="I68" s="11" cm="1">
+        <f t="array" ref="I68">RANK(H68,$H$2:$H$86,0)</f>
         <v>13</v>
       </c>
       <c r="J68" s="5"/>
@@ -3751,12 +3780,12 @@
       <c r="G69" s="12">
         <v>99</v>
       </c>
-      <c r="H69" s="11">
-        <f>(C69+D69+E69+F69+G69)/5</f>
+      <c r="H69" s="11" cm="1">
+        <f t="array" ref="H69">(C69+D69+E69+F69+G69)/5</f>
         <v>57.3376332666447</v>
       </c>
-      <c r="I69" s="11">
-        <f>RANK(H69,$H$2:$H$86,0)</f>
+      <c r="I69" s="11" cm="1">
+        <f t="array" ref="I69">RANK(H69,$H$2:$H$86,0)</f>
         <v>38</v>
       </c>
       <c r="J69" s="5"/>
@@ -3783,12 +3812,12 @@
       <c r="G70" s="12">
         <v>100</v>
       </c>
-      <c r="H70" s="11">
-        <f>(C70+D70+E70+F70+G70)/5</f>
+      <c r="H70" s="11" cm="1">
+        <f t="array" ref="H70">(C70+D70+E70+F70+G70)/5</f>
         <v>34.0189928946161</v>
       </c>
-      <c r="I70" s="11">
-        <f>RANK(H70,$H$2:$H$86,0)</f>
+      <c r="I70" s="11" cm="1">
+        <f t="array" ref="I70">RANK(H70,$H$2:$H$86,0)</f>
         <v>80</v>
       </c>
       <c r="J70" s="5"/>
@@ -3815,12 +3844,12 @@
       <c r="G71" s="12">
         <v>57</v>
       </c>
-      <c r="H71" s="11">
-        <f>(C71+D71+E71+F71+G71)/5</f>
+      <c r="H71" s="11" cm="1">
+        <f t="array" ref="H71">(C71+D71+E71+F71+G71)/5</f>
         <v>52.4588508933093</v>
       </c>
-      <c r="I71" s="11">
-        <f>RANK(H71,$H$2:$H$86,0)</f>
+      <c r="I71" s="11" cm="1">
+        <f t="array" ref="I71">RANK(H71,$H$2:$H$86,0)</f>
         <v>51</v>
       </c>
       <c r="J71" s="5"/>
@@ -3847,12 +3876,12 @@
       <c r="G72" s="12">
         <v>9</v>
       </c>
-      <c r="H72" s="11">
-        <f>(C72+D72+E72+F72+G72)/5</f>
+      <c r="H72" s="11" cm="1">
+        <f t="array" ref="H72">(C72+D72+E72+F72+G72)/5</f>
         <v>75.2830190441306</v>
       </c>
-      <c r="I72" s="11">
-        <f>RANK(H72,$H$2:$H$86,0)</f>
+      <c r="I72" s="11" cm="1">
+        <f t="array" ref="I72">RANK(H72,$H$2:$H$86,0)</f>
         <v>11</v>
       </c>
       <c r="J72" s="5"/>
@@ -3879,12 +3908,12 @@
       <c r="G73" s="12">
         <v>100</v>
       </c>
-      <c r="H73" s="11">
-        <f>(C73+D73+E73+F73+G73)/5</f>
+      <c r="H73" s="11" cm="1">
+        <f t="array" ref="H73">(C73+D73+E73+F73+G73)/5</f>
         <v>41.0568599611406</v>
       </c>
-      <c r="I73" s="11">
-        <f>RANK(H73,$H$2:$H$86,0)</f>
+      <c r="I73" s="11" cm="1">
+        <f t="array" ref="I73">RANK(H73,$H$2:$H$86,0)</f>
         <v>71</v>
       </c>
       <c r="J73" s="5"/>
@@ -3913,12 +3942,12 @@
       <c r="G74" s="12">
         <v>100</v>
       </c>
-      <c r="H74" s="11">
-        <f>(C74+D74+E74+F74+G74)/5</f>
+      <c r="H74" s="11" cm="1">
+        <f t="array" ref="H74">(C74+D74+E74+F74+G74)/5</f>
         <v>52.0378999955567</v>
       </c>
-      <c r="I74" s="11">
-        <f>RANK(H74,$H$2:$H$86,0)</f>
+      <c r="I74" s="11" cm="1">
+        <f t="array" ref="I74">RANK(H74,$H$2:$H$86,0)</f>
         <v>53</v>
       </c>
       <c r="J74" s="5"/>
@@ -3945,12 +3974,12 @@
       <c r="G75" s="12">
         <v>72</v>
       </c>
-      <c r="H75" s="11">
-        <f>(C75+D75+E75+F75+G75)/5</f>
+      <c r="H75" s="11" cm="1">
+        <f t="array" ref="H75">(C75+D75+E75+F75+G75)/5</f>
         <v>54.5945627054988</v>
       </c>
-      <c r="I75" s="11">
-        <f>RANK(H75,$H$2:$H$86,0)</f>
+      <c r="I75" s="11" cm="1">
+        <f t="array" ref="I75">RANK(H75,$H$2:$H$86,0)</f>
         <v>46</v>
       </c>
       <c r="J75" s="5"/>
@@ -3979,12 +4008,12 @@
       <c r="G76" s="12">
         <v>93</v>
       </c>
-      <c r="H76" s="11">
-        <f>(C76+D76+E76+F76+G76)/5</f>
+      <c r="H76" s="11" cm="1">
+        <f t="array" ref="H76">(C76+D76+E76+F76+G76)/5</f>
         <v>65.833674963433</v>
       </c>
-      <c r="I76" s="11">
-        <f>RANK(H76,$H$2:$H$86,0)</f>
+      <c r="I76" s="11" cm="1">
+        <f t="array" ref="I76">RANK(H76,$H$2:$H$86,0)</f>
         <v>17</v>
       </c>
       <c r="J76" s="5"/>
@@ -4011,12 +4040,12 @@
       <c r="G77" s="12">
         <v>32</v>
       </c>
-      <c r="H77" s="11">
-        <f>(C77+D77+E77+F77+G77)/5</f>
+      <c r="H77" s="11" cm="1">
+        <f t="array" ref="H77">(C77+D77+E77+F77+G77)/5</f>
         <v>53.1851163478423</v>
       </c>
-      <c r="I77" s="11">
-        <f>RANK(H77,$H$2:$H$86,0)</f>
+      <c r="I77" s="11" cm="1">
+        <f t="array" ref="I77">RANK(H77,$H$2:$H$86,0)</f>
         <v>48</v>
       </c>
       <c r="J77" s="5"/>
@@ -4043,12 +4072,12 @@
       <c r="G78" s="12">
         <v>48</v>
       </c>
-      <c r="H78" s="11">
-        <f>(C78+D78+E78+F78+G78)/5</f>
+      <c r="H78" s="11" cm="1">
+        <f t="array" ref="H78">(C78+D78+E78+F78+G78)/5</f>
         <v>48.4369296258667</v>
       </c>
-      <c r="I78" s="11">
-        <f>RANK(H78,$H$2:$H$86,0)</f>
+      <c r="I78" s="11" cm="1">
+        <f t="array" ref="I78">RANK(H78,$H$2:$H$86,0)</f>
         <v>59</v>
       </c>
       <c r="J78" s="5"/>
@@ -4075,12 +4104,12 @@
       <c r="G79" s="12">
         <v>0</v>
       </c>
-      <c r="H79" s="11">
-        <f>(C79+D79+E79+F79+G79)/5</f>
+      <c r="H79" s="11" cm="1">
+        <f t="array" ref="H79">(C79+D79+E79+F79+G79)/5</f>
         <v>49.3988091112631</v>
       </c>
-      <c r="I79" s="11">
-        <f>RANK(H79,$H$2:$H$86,0)</f>
+      <c r="I79" s="11" cm="1">
+        <f t="array" ref="I79">RANK(H79,$H$2:$H$86,0)</f>
         <v>58</v>
       </c>
       <c r="J79" s="5"/>
@@ -4107,12 +4136,12 @@
       <c r="G80" s="12">
         <v>100</v>
       </c>
-      <c r="H80" s="11">
-        <f>(C80+D80+E80+F80+G80)/5</f>
+      <c r="H80" s="11" cm="1">
+        <f t="array" ref="H80">(C80+D80+E80+F80+G80)/5</f>
         <v>44.2734588771268</v>
       </c>
-      <c r="I80" s="11">
-        <f>RANK(H80,$H$2:$H$86,0)</f>
+      <c r="I80" s="11" cm="1">
+        <f t="array" ref="I80">RANK(H80,$H$2:$H$86,0)</f>
         <v>64</v>
       </c>
       <c r="J80" s="5"/>
@@ -4139,12 +4168,12 @@
       <c r="G81" s="12">
         <v>2</v>
       </c>
-      <c r="H81" s="11">
-        <f>(C81+D81+E81+F81+G81)/5</f>
+      <c r="H81" s="11" cm="1">
+        <f t="array" ref="H81">(C81+D81+E81+F81+G81)/5</f>
         <v>55.1391395163129</v>
       </c>
-      <c r="I81" s="11">
-        <f>RANK(H81,$H$2:$H$86,0)</f>
+      <c r="I81" s="11" cm="1">
+        <f t="array" ref="I81">RANK(H81,$H$2:$H$86,0)</f>
         <v>45</v>
       </c>
       <c r="J81" s="5"/>
@@ -4171,12 +4200,12 @@
       <c r="G82" s="12">
         <v>100</v>
       </c>
-      <c r="H82" s="11">
-        <f>(C82+D82+E82+F82+G82)/5</f>
+      <c r="H82" s="11" cm="1">
+        <f t="array" ref="H82">(C82+D82+E82+F82+G82)/5</f>
         <v>63.904537464958</v>
       </c>
-      <c r="I82" s="11">
-        <f>RANK(H82,$H$2:$H$86,0)</f>
+      <c r="I82" s="11" cm="1">
+        <f t="array" ref="I82">RANK(H82,$H$2:$H$86,0)</f>
         <v>22</v>
       </c>
       <c r="J82" s="5"/>
@@ -4203,12 +4232,12 @@
       <c r="G83" s="12">
         <v>7</v>
       </c>
-      <c r="H83" s="11">
-        <f>(C83+D83+E83+F83+G83)/5</f>
+      <c r="H83" s="11" cm="1">
+        <f t="array" ref="H83">(C83+D83+E83+F83+G83)/5</f>
         <v>62.970931480149</v>
       </c>
-      <c r="I83" s="11">
-        <f>RANK(H83,$H$2:$H$86,0)</f>
+      <c r="I83" s="11" cm="1">
+        <f t="array" ref="I83">RANK(H83,$H$2:$H$86,0)</f>
         <v>23</v>
       </c>
       <c r="J83" s="5"/>
@@ -4237,12 +4266,12 @@
       <c r="G84" s="12">
         <v>67</v>
       </c>
-      <c r="H84" s="11">
-        <f>(C84+D84+E84+F84+G84)/5</f>
+      <c r="H84" s="11" cm="1">
+        <f t="array" ref="H84">(C84+D84+E84+F84+G84)/5</f>
         <v>53.1030274876226</v>
       </c>
-      <c r="I84" s="11">
-        <f>RANK(H84,$H$2:$H$86,0)</f>
+      <c r="I84" s="11" cm="1">
+        <f t="array" ref="I84">RANK(H84,$H$2:$H$86,0)</f>
         <v>49</v>
       </c>
       <c r="J84" s="5"/>
@@ -4269,12 +4298,12 @@
       <c r="G85" s="12">
         <v>25</v>
       </c>
-      <c r="H85" s="11">
-        <f>(C85+D85+E85+F85+G85)/5</f>
+      <c r="H85" s="11" cm="1">
+        <f t="array" ref="H85">(C85+D85+E85+F85+G85)/5</f>
         <v>61.9605247232745</v>
       </c>
-      <c r="I85" s="11">
-        <f>RANK(H85,$H$2:$H$86,0)</f>
+      <c r="I85" s="11" cm="1">
+        <f t="array" ref="I85">RANK(H85,$H$2:$H$86,0)</f>
         <v>26</v>
       </c>
       <c r="J85" s="5"/>
@@ -4301,12 +4330,12 @@
       <c r="G86" s="12">
         <v>81</v>
       </c>
-      <c r="H86" s="11">
-        <f>(C86+D86+E86+F86+G86)/5</f>
+      <c r="H86" s="11" cm="1">
+        <f t="array" ref="H86">(C86+D86+E86+F86+G86)/5</f>
         <v>58.1312620778811</v>
       </c>
-      <c r="I86" s="11">
-        <f>RANK(H86,$H$2:$H$86,0)</f>
+      <c r="I86" s="11" cm="1">
+        <f t="array" ref="I86">RANK(H86,$H$2:$H$86,0)</f>
         <v>34</v>
       </c>
       <c r="J86" s="5"/>
